--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanoord01-my.sharepoint.com/personal/mark_vankoningsveld_vanoord_com/Documents/Software/github/OpenSCSim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRV\OneDrive - Van Oord\Software\github\OpenSCSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9A9BEF13-EB74-441D-AAF2-423E97231CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27903809-34B0-474E-983B-194932D36E29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D60D32-CF47-45BD-960E-303D774428F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B597A6C5-A3EB-4208-8E39-4B22909E4179}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="50">
   <si>
     <t>Unit</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>0.4, 0.3, 0.3</t>
+  </si>
+  <si>
+    <t>Number of units</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -360,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
@@ -382,6 +391,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -558,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A6B0C4B-085D-48DA-A9DF-C437E3BFF5BA}" name="Inputs" displayName="Inputs" ref="A3:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H31" xr:uid="{5A6B0C4B-085D-48DA-A9DF-C437E3BFF5BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A6B0C4B-085D-48DA-A9DF-C437E3BFF5BA}" name="Inputs" displayName="Inputs" ref="A3:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H33" xr:uid="{5A6B0C4B-085D-48DA-A9DF-C437E3BFF5BA}"/>
   <tableColumns count="8">
     <tableColumn id="10" xr3:uid="{A29D77B1-8B4D-46B9-A46D-808672277DC7}" name="Sub-system" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{8584C459-CB56-4117-97F5-7AC146DC6559}" name="Element" dataDxfId="6"/>
@@ -871,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03E5E3-DD2E-40F1-B94C-6539AC95E45A}">
-  <dimension ref="A2:H56"/>
+  <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,19 +1231,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="11">
+        <v>80</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1247,19 +1257,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1273,19 +1283,19 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1296,22 +1306,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12">
         <v>1</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1328,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>3</v>
@@ -1353,17 +1363,17 @@
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>35</v>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1380,16 +1390,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="11">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1406,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="11">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1432,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="11">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1458,16 +1468,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="11">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1484,16 +1494,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="11">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1510,16 +1520,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="11">
-        <v>500000</v>
+        <v>3500000</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1536,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="11">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1562,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="11">
-        <v>650000</v>
+        <v>800000</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1585,19 +1595,19 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="12">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="11">
+        <v>650000</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1611,19 +1621,19 @@
         <v>23</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="12">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="F30" s="11">
+        <v>80</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1637,32 +1647,72 @@
         <v>23</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H31" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="E33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
@@ -1688,25 +1738,17 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
@@ -1725,8 +1767,8 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
@@ -1759,11 +1801,21 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="2"/>
@@ -1789,10 +1841,20 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRV\OneDrive - Van Oord\Software\github\OpenSCSim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W5G\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D60D32-CF47-45BD-960E-303D774428F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B8445E-C597-44F5-AD37-B36BAFEC7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B597A6C5-A3EB-4208-8E39-4B22909E4179}"/>
+    <workbookView xWindow="-28908" yWindow="-9876" windowWidth="29016" windowHeight="15816" xr2:uid="{B597A6C5-A3EB-4208-8E39-4B22909E4179}"/>
   </bookViews>
   <sheets>
     <sheet name="Python test sheet" sheetId="10" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <definedName name="Turbines_procurement">SUM(#REF!+#REF!+#REF!)</definedName>
     <definedName name="Turbines_Res">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,27 +154,18 @@
     <t>Jacket or monopile costs (Procurement)</t>
   </si>
   <si>
-    <t>Jacket or monopile costs (Installation)</t>
-  </si>
-  <si>
     <t>Corrosion protection costs (Development and Project Management)</t>
   </si>
   <si>
     <t>Corrosion protection costs (Procurement)</t>
   </si>
   <si>
-    <t>Corrosion protection costs (Installation)</t>
-  </si>
-  <si>
     <t>Scour protection costs (Development and Project Management)</t>
   </si>
   <si>
     <t>Scour protection costs (Procurement)</t>
   </si>
   <si>
-    <t>Scour protection costs (Installation)</t>
-  </si>
-  <si>
     <t>Turbines</t>
   </si>
   <si>
@@ -184,27 +175,18 @@
     <t>Rotor nacelle costs (Procurement)</t>
   </si>
   <si>
-    <t>Rotor nacelle costs (Installation)</t>
-  </si>
-  <si>
     <t>Tower costs (Development and Project Management)</t>
   </si>
   <si>
     <t>Tower costs (Procurement)</t>
   </si>
   <si>
-    <t>Tower costs (Installation)</t>
-  </si>
-  <si>
     <t>Transition piece costs (Development and Project Management)</t>
   </si>
   <si>
     <t>Transition piece costs (Procurement)</t>
   </si>
   <si>
-    <t>Transition piece costs (Installation)</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>Procurement</t>
   </si>
   <si>
-    <t>Installation</t>
-  </si>
-  <si>
     <t>% / Capex</t>
   </si>
   <si>
@@ -254,6 +233,27 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Jacket or monopile costs (Installation and Commissioning)</t>
+  </si>
+  <si>
+    <t>Installation and Commissioning</t>
+  </si>
+  <si>
+    <t>Corrosion protection costs (Installation and Commissioning)</t>
+  </si>
+  <si>
+    <t>Scour protection costs (Installation and Commissioning)</t>
+  </si>
+  <si>
+    <t>Rotor nacelle costs (Installation and Commissioning)</t>
+  </si>
+  <si>
+    <t>Tower costs (Installation and Commissioning)</t>
+  </si>
+  <si>
+    <t>Transition piece costs (Installation and Commissioning)</t>
   </si>
 </sst>
 </file>
@@ -883,24 +883,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03E5E3-DD2E-40F1-B94C-6539AC95E45A}">
   <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -908,21 +908,21 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>2</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -974,19 +974,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1006,13 +1006,13 @@
         <v>100000</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1032,13 +1032,13 @@
         <v>400000</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1052,19 +1052,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F8" s="11">
         <v>300000</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1078,19 +1078,19 @@
         <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="11">
         <v>50000</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1104,19 +1104,19 @@
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11">
         <v>90000</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1130,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F11" s="11">
         <v>80000</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
@@ -1156,19 +1156,19 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="11">
         <v>130000</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1182,19 +1182,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="11">
         <v>200000</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
@@ -1208,19 +1208,19 @@
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F14" s="11">
         <v>180000</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1231,22 +1231,22 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" s="11">
         <v>80</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -1266,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1318,13 +1318,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -1358,25 +1358,25 @@
         <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -1384,25 +1384,25 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21" s="11">
         <v>1000000</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1410,25 +1410,25 @@
         <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="11">
         <v>2000000</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1436,25 +1436,25 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F23" s="11">
         <v>1500000</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -1462,25 +1462,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F24" s="11">
         <v>3000000</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1488,25 +1488,25 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F25" s="11">
         <v>4000000</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1514,25 +1514,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F26" s="11">
         <v>3500000</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -1540,25 +1540,25 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F27" s="11">
         <v>500000</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -1566,25 +1566,25 @@
         <v>8</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F28" s="11">
         <v>800000</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -1592,25 +1592,25 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F29" s="11">
         <v>650000</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -1618,25 +1618,25 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11">
         <v>80</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>5</v>
@@ -1682,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>6</v>
@@ -1708,49 +1708,49 @@
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -1760,7 +1760,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
@@ -1770,7 +1770,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="6"/>
@@ -1780,7 +1780,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
@@ -1790,7 +1790,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
@@ -1800,7 +1800,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
@@ -1810,7 +1810,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
@@ -1820,37 +1820,37 @@
       <c r="G51" s="4"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1866,6 +1866,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B7D1467855757499D73586B34C0451E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e72324f263268c186729641fc17318e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b95fd7e-a044-46e4-8f14-dc6c4da074b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0251e806a63e73d41efda05ae1ed913a" ns2:_="">
     <xsd:import namespace="8b95fd7e-a044-46e4-8f14-dc6c4da074b9"/>
@@ -2011,35 +2026,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E031A34C-4CD7-4BB0-9698-756D4EC1C821}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCA18FE1-8743-4828-9330-4950E3550AAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b95fd7e-a044-46e4-8f14-dc6c4da074b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2061,9 +2051,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCA18FE1-8743-4828-9330-4950E3550AAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E031A34C-4CD7-4BB0-9698-756D4EC1C821}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b95fd7e-a044-46e4-8f14-dc6c4da074b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>